--- a/Examples/Multiplikation.xlsx
+++ b/Examples/Multiplikation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
   <si>
     <t>SRA</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>carry reset</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>NOT</t>
   </si>
 </sst>
 </file>
@@ -158,9 +164,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,535 +498,785 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>100</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>104</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>106</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <f>A12</f>
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>108</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>110</v>
       </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>112</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>114</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>116</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>118</v>
       </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <f>A2</f>
-        <v>100</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>120</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>122</v>
       </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>124</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>126</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>128</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>130</v>
       </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17">
-        <f>A19</f>
-        <v>134</v>
-      </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18">
-        <f>A5</f>
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>134</v>
       </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>136</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>138</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>140</v>
       </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>142</v>
       </c>
-      <c r="B23" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>144</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24">
-        <f>A5</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>146</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>148</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>152</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>154</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>156</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>158</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>160</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <f>A$34</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>162</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="2">
+        <f>A$38</f>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>164</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>166</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>168</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>170</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>172</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>174</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>176</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>178</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <f>A48</f>
+        <v>192</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>182</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>184</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>186</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>188</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>190</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47">
+        <f>A38</f>
+        <v>172</v>
+      </c>
+      <c r="E47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>192</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>194</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>196</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>202</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <f>A55</f>
+        <v>206</v>
+      </c>
+      <c r="E53" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>204</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <f>A41</f>
+        <v>178</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>206</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>208</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>210</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>212</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>214</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>216</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <f>A41</f>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>224</v>
       </c>
@@ -1597,6 +1854,186 @@
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>454</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Multiplikation.xlsx
+++ b/Examples/Multiplikation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
   <si>
     <t>SRA</t>
   </si>
@@ -117,10 +117,16 @@
     <t>carry reset</t>
   </si>
   <si>
-    <t>not</t>
-  </si>
-  <si>
     <t>NOT</t>
+  </si>
+  <si>
+    <t>SLL</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#42</t>
   </si>
 </sst>
 </file>
@@ -469,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E215"/>
+  <dimension ref="A1:E183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +487,8 @@
     <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -517,7 +524,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
@@ -530,9 +537,9 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
-        <f>A$34</f>
-        <v>164</v>
+      <c r="D4" s="2" t="str">
+        <f>"#"&amp;A$29</f>
+        <v>#154</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -540,743 +547,588 @@
         <v>106</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>108</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>110</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>112</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>114</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="str">
+        <f>"#"&amp;A$16</f>
+        <v>#128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>116</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>118</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>120</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>122</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>124</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>126</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="str">
+        <f>"#"&amp;A$6</f>
+        <v>#108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>128</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>130</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>132</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>134</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>136</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>138</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" t="str">
+        <f>"#"&amp;A$23</f>
+        <v>#142</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>140</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"#"&amp;A$9</f>
+        <v>#114</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>142</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>144</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>146</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>148</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>150</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>152</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" t="str">
+        <f>"#"&amp;A$9</f>
+        <v>#114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>154</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>156</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>158</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>160</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="2">
-        <f>A$34</f>
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>162</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="2">
-        <f>A$38</f>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>164</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>166</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>168</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>170</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>172</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="D38" t="str">
+        <f>"#"&amp;A$5</f>
+        <v>#106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>174</v>
       </c>
-      <c r="B39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>176</v>
       </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>178</v>
       </c>
-      <c r="B41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41">
-        <f>A48</f>
-        <v>192</v>
-      </c>
-      <c r="E41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>180</v>
       </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42">
-        <v>42</v>
-      </c>
-      <c r="E42" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>182</v>
       </c>
-      <c r="B43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>184</v>
       </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>186</v>
       </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>188</v>
       </c>
-      <c r="B46" t="s">
-        <v>11</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>190</v>
       </c>
-      <c r="B47" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47">
-        <f>A38</f>
-        <v>172</v>
-      </c>
-      <c r="E47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>192</v>
       </c>
-      <c r="B48" t="s">
-        <v>14</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>194</v>
       </c>
-      <c r="B49" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>196</v>
       </c>
-      <c r="B50" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>198</v>
       </c>
-      <c r="B51" t="s">
-        <v>17</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>200</v>
       </c>
-      <c r="B52" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>202</v>
       </c>
-      <c r="B53" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53">
-        <f>A55</f>
-        <v>206</v>
-      </c>
-      <c r="E53" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>204</v>
       </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54">
-        <f>A41</f>
-        <v>178</v>
-      </c>
-      <c r="E54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>206</v>
       </c>
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>208</v>
       </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>210</v>
       </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-      <c r="E57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>212</v>
       </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>214</v>
       </c>
-      <c r="B59" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>216</v>
       </c>
-      <c r="B60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60">
-        <f>A41</f>
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>224</v>
       </c>
@@ -1874,166 +1726,6 @@
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>462</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215">
-        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Multiplikation.xlsx
+++ b/Examples/Multiplikation.xlsx
@@ -16,26 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>SRA</t>
   </si>
   <si>
-    <t>SLA</t>
-  </si>
-  <si>
-    <t>#500</t>
-  </si>
-  <si>
-    <t>#502</t>
-  </si>
-  <si>
-    <t>#506</t>
-  </si>
-  <si>
-    <t>#504</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -127,6 +112,27 @@
   </si>
   <si>
     <t>#42</t>
+  </si>
+  <si>
+    <t>Zwischenergebnis:</t>
+  </si>
+  <si>
+    <t>Überlauf zwischenergebnis:</t>
+  </si>
+  <si>
+    <t>Operand 1</t>
+  </si>
+  <si>
+    <t>Operand 2</t>
+  </si>
+  <si>
+    <t>resultat:</t>
+  </si>
+  <si>
+    <t>Überlauf resultat:</t>
+  </si>
+  <si>
+    <t>überlauf berücksichtigen</t>
   </si>
 </sst>
 </file>
@@ -170,10 +176,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,1257 +490,1452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E183"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="3.5546875" style="5" customWidth="1"/>
+    <col min="4" max="5" width="7.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="23.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>",#"&amp;I5</f>
+        <v>,#502</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>",#"&amp;I2</f>
+        <v>,#510</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>104</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C4" s="4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="H4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>106</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f>",#"&amp;I5</f>
+        <v>,#502</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>108</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>110</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>112</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="str">
+        <f>"#"&amp;A$34</f>
+        <v>#164</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>114</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>116</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>118</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>120</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>122</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f>"#"&amp;A$21</f>
+        <v>#138</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>124</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>126</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>128</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>130</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>132</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>134</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D19" s="5" t="str">
+        <f>"#"&amp;A$44</f>
+        <v>#184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>136</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D20" s="5" t="str">
+        <f>"#"&amp;A$10</f>
+        <v>#116</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>138</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>140</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>142</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>144</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>104</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>"#"&amp;A$29</f>
-        <v>#154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>106</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>108</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>146</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>148</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>"#"&amp;A$28</f>
+        <v>#152</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>150</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D27" s="5" t="str">
+        <f>"#"&amp;A$13</f>
+        <v>#122</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>152</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>112</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>114</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="str">
-        <f>"#"&amp;A$16</f>
-        <v>#128</v>
-      </c>
-      <c r="E9" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>154</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>156</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>158</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>160</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>162</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f>"#"&amp;A$13</f>
+        <v>#122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>164</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
+        <v>166</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>116</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>168</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>118</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>120</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="D36" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>170</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>172</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>174</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>176</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>178</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4">
+        <v>180</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
+        <v>182</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>122</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>124</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>126</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" t="str">
-        <f>"#"&amp;A$6</f>
-        <v>#108</v>
-      </c>
-      <c r="E15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>128</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>130</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>132</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>134</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>136</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>138</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" t="str">
-        <f>"#"&amp;A$23</f>
-        <v>#142</v>
-      </c>
-      <c r="E21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>140</v>
-      </c>
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" t="str">
+      <c r="D43" s="5" t="str">
         <f>"#"&amp;A$9</f>
         <v>#114</v>
       </c>
-      <c r="E22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>142</v>
-      </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
+        <v>184</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>186</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>188</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>190</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>192</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>144</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>146</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D48" s="5" t="str">
+        <f>"#"&amp;A$10</f>
+        <v>#116</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>148</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>150</v>
-      </c>
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>152</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="str">
-        <f>"#"&amp;A$9</f>
-        <v>#114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>154</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>156</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>158</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>160</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>162</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>164</v>
-      </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>166</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>168</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>170</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>172</v>
-      </c>
-      <c r="B38" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" t="str">
-        <f>"#"&amp;A$5</f>
-        <v>#106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>192</v>
-      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="A49" s="4">
         <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="A50" s="4">
         <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="A51" s="4">
         <v>198</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52">
+      <c r="A52" s="4">
         <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="A53" s="4">
         <v>202</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54">
+      <c r="A54" s="4">
         <v>204</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="A55" s="4">
         <v>206</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56">
+      <c r="A56" s="4">
         <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57">
+      <c r="A57" s="4">
         <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58">
+      <c r="A58" s="4">
         <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59">
+      <c r="A59" s="4">
         <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60">
+      <c r="A60" s="4">
         <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61">
+      <c r="A61" s="4">
         <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62">
+      <c r="A62" s="4">
         <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63">
+      <c r="A63" s="4">
         <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64">
+      <c r="A64" s="4">
         <v>224</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65">
+      <c r="A65" s="4">
         <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66">
+      <c r="A66" s="4">
         <v>228</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67">
+      <c r="A67" s="4">
         <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68">
+      <c r="A68" s="4">
         <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69">
+      <c r="A69" s="4">
         <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70">
+      <c r="A70" s="4">
         <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71">
+      <c r="A71" s="4">
         <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72">
+      <c r="A72" s="4">
         <v>240</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73">
+      <c r="A73" s="4">
         <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74">
+      <c r="A74" s="4">
         <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75">
+      <c r="A75" s="4">
         <v>246</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76">
+      <c r="A76" s="4">
         <v>248</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77">
+      <c r="A77" s="4">
         <v>250</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78">
+      <c r="A78" s="4">
         <v>252</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79">
+      <c r="A79" s="4">
         <v>254</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80">
+      <c r="A80" s="4">
         <v>256</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81">
+      <c r="A81" s="4">
         <v>258</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82">
+      <c r="A82" s="4">
         <v>260</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83">
+      <c r="A83" s="4">
         <v>262</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84">
+      <c r="A84" s="4">
         <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85">
+      <c r="A85" s="4">
         <v>266</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86">
+      <c r="A86" s="4">
         <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87">
+      <c r="A87" s="4">
         <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88">
+      <c r="A88" s="4">
         <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89">
+      <c r="A89" s="4">
         <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" s="4">
         <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91">
+      <c r="A91" s="4">
         <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92">
+      <c r="A92" s="4">
         <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93">
+      <c r="A93" s="4">
         <v>282</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94">
+      <c r="A94" s="4">
         <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95">
+      <c r="A95" s="4">
         <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96">
+      <c r="A96" s="4">
         <v>288</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97">
+      <c r="A97" s="4">
         <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98">
+      <c r="A98" s="4">
         <v>292</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99">
+      <c r="A99" s="4">
         <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100">
+      <c r="A100" s="4">
         <v>296</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A101">
+      <c r="A101" s="4">
         <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A102">
+      <c r="A102" s="4">
         <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103">
+      <c r="A103" s="4">
         <v>302</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104">
+      <c r="A104" s="4">
         <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A105">
+      <c r="A105" s="4">
         <v>306</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A106">
+      <c r="A106" s="4">
         <v>308</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A107">
+      <c r="A107" s="4">
         <v>310</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A108">
+      <c r="A108" s="4">
         <v>312</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109">
+      <c r="A109" s="4">
         <v>314</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110">
+      <c r="A110" s="4">
         <v>316</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111">
+      <c r="A111" s="4">
         <v>318</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112">
+      <c r="A112" s="4">
         <v>320</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113">
+      <c r="A113" s="4">
         <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114">
+      <c r="A114" s="4">
         <v>324</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115">
+      <c r="A115" s="4">
         <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116">
+      <c r="A116" s="4">
         <v>328</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117">
+      <c r="A117" s="4">
         <v>330</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118">
+      <c r="A118" s="4">
         <v>332</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119">
+      <c r="A119" s="4">
         <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120">
+      <c r="A120" s="4">
         <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121">
+      <c r="A121" s="4">
         <v>338</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122">
+      <c r="A122" s="4">
         <v>340</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123">
+      <c r="A123" s="4">
         <v>342</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124">
+      <c r="A124" s="4">
         <v>344</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125">
+      <c r="A125" s="4">
         <v>346</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126">
+      <c r="A126" s="4">
         <v>348</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127">
+      <c r="A127" s="4">
         <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128">
+      <c r="A128" s="4">
         <v>352</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129">
+      <c r="A129" s="4">
         <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130">
+      <c r="A130" s="4">
         <v>356</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131">
+      <c r="A131" s="4">
         <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132">
+      <c r="A132" s="4">
         <v>360</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133">
+      <c r="A133" s="4">
         <v>362</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134">
+      <c r="A134" s="4">
         <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135">
+      <c r="A135" s="4">
         <v>366</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136">
+      <c r="A136" s="4">
         <v>368</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137">
+      <c r="A137" s="4">
         <v>370</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138">
+      <c r="A138" s="4">
         <v>372</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139">
+      <c r="A139" s="4">
         <v>374</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140">
+      <c r="A140" s="4">
         <v>376</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141">
+      <c r="A141" s="4">
         <v>378</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142">
+      <c r="A142" s="4">
         <v>380</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143">
+      <c r="A143" s="4">
         <v>382</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144">
+      <c r="A144" s="4">
         <v>384</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145">
+      <c r="A145" s="4">
         <v>386</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146">
+      <c r="A146" s="4">
         <v>388</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147">
+      <c r="A147" s="4">
         <v>390</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148">
+      <c r="A148" s="4">
         <v>392</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149">
+      <c r="A149" s="4">
         <v>394</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150">
+      <c r="A150" s="4">
         <v>396</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151">
+      <c r="A151" s="4">
         <v>398</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152">
+      <c r="A152" s="4">
         <v>400</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153">
+      <c r="A153" s="4">
         <v>402</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154">
+      <c r="A154" s="4">
         <v>404</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155">
+      <c r="A155" s="4">
         <v>406</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156">
+      <c r="A156" s="4">
         <v>408</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157">
+      <c r="A157" s="4">
         <v>410</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158">
+      <c r="A158" s="4">
         <v>412</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159">
+      <c r="A159" s="4">
         <v>414</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160">
+      <c r="A160" s="4">
         <v>416</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161">
+      <c r="A161" s="4">
         <v>418</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162">
+      <c r="A162" s="4">
         <v>420</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163">
+      <c r="A163" s="4">
         <v>422</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164">
+      <c r="A164" s="4">
         <v>424</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165">
+      <c r="A165" s="4">
         <v>426</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166">
+      <c r="A166" s="4">
         <v>428</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167">
+      <c r="A167" s="4">
         <v>430</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168">
+      <c r="A168" s="4">
         <v>432</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169">
+      <c r="A169" s="4">
         <v>434</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170">
+      <c r="A170" s="4">
         <v>436</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171">
+      <c r="A171" s="4">
         <v>438</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172">
+      <c r="A172" s="4">
         <v>440</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173">
+      <c r="A173" s="4">
         <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174">
+      <c r="A174" s="4">
         <v>444</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175">
+      <c r="A175" s="4">
         <v>446</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176">
+      <c r="A176" s="4">
         <v>448</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177">
+      <c r="A177" s="4">
         <v>450</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178">
+      <c r="A178" s="4">
         <v>452</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179">
+      <c r="A179" s="4">
         <v>454</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180">
+      <c r="A180" s="4">
         <v>456</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181">
+      <c r="A181" s="4">
         <v>458</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182">
+      <c r="A182" s="4">
         <v>460</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183">
+      <c r="A183" s="4">
         <v>462</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" s="4">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" s="4">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" s="4">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" s="4">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Multiplikation.xlsx
+++ b/Examples/Multiplikation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
   <si>
     <t>SRA</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>überlauf berücksichtigen</t>
+  </si>
+  <si>
+    <t>überlauf zwres berücksichtigen</t>
   </si>
 </sst>
 </file>
@@ -490,11 +493,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -664,8 +665,8 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="str">
-        <f>"#"&amp;A$34</f>
-        <v>#164</v>
+        <f>"#"&amp;A$36</f>
+        <v>#168</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -825,8 +826,8 @@
         <v>7</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f>"#"&amp;A$44</f>
-        <v>#184</v>
+        <f>"#"&amp;A$46</f>
+        <v>#188</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -869,26 +870,20 @@
         <f>",#"&amp;$I$6</f>
         <v>,#506</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>142</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>19</v>
+        <f>"#"&amp;A$51</f>
+        <v>#198</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -896,13 +891,17 @@
         <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C24" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -910,17 +909,17 @@
         <v>146</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -928,14 +927,13 @@
         <v>148</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f>"#"&amp;A$28</f>
-        <v>#152</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -943,14 +941,17 @@
         <v>150</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
       </c>
       <c r="D27" s="5" t="str">
-        <f>"#"&amp;A$13</f>
-        <v>#122</v>
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -958,17 +959,14 @@
         <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+        <f>"#"&amp;A$30</f>
+        <v>#156</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -976,13 +974,14 @@
         <v>154</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f>"#"&amp;A$13</f>
+        <v>#122</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -990,7 +989,7 @@
         <v>156</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="5">
         <v>0</v>
@@ -1000,7 +999,7 @@
         <v>,#504</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1008,13 +1007,13 @@
         <v>158</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C31" s="5">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1022,27 +1021,31 @@
         <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
       </c>
-      <c r="D32" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E32" s="4"/>
+      <c r="D32" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>162</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="5" t="str">
-        <f>"#"&amp;A$13</f>
-        <v>#122</v>
+        <v>9</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1066,7 +1069,11 @@
         <v>166</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f>"#"&amp;A$13</f>
+        <v>#122</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1074,41 +1081,34 @@
         <v>168</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>30</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+      <c r="D36" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>170</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
-      <c r="D37" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E37" s="4"/>
+        <v>28</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>172</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
+        <v>13</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1116,18 +1116,30 @@
         <v>174</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>28</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>176</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1135,14 +1147,7 @@
         <v>178</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1150,10 +1155,10 @@
         <v>180</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1161,11 +1166,14 @@
         <v>182</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
       </c>
       <c r="D43" s="5" t="str">
-        <f>"#"&amp;A$9</f>
-        <v>#114</v>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1173,14 +1181,10 @@
         <v>184</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
-      </c>
-      <c r="D44" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1188,10 +1192,11 @@
         <v>186</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <f>"#"&amp;A$9</f>
+        <v>#114</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1199,7 +1204,7 @@
         <v>188</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
@@ -1214,13 +1219,10 @@
         <v>190</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47" s="5">
-        <v>0</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>27</v>
+        <v>13</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1228,92 +1230,162 @@
         <v>192</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0</v>
+      </c>
+      <c r="D48" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>194</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
+        <v>196</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="5" t="str">
+      <c r="D50" s="5" t="str">
         <f>"#"&amp;A$10</f>
         <v>#116</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5" t="str">
+        <f>"#"&amp;A$54</f>
+        <v>#204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>202</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <f>"#"&amp;A$24</f>
+        <v>#144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>204</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>206</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>208</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="5" t="str">
+        <f>"#"&amp;A$24</f>
+        <v>#144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>210</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>212</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>218</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>220</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>224</v>
       </c>
@@ -1936,6 +2008,16 @@
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="4">
         <v>472</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" s="4">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/Multiplikation.xlsx
+++ b/Examples/Multiplikation.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
-  <si>
-    <t>SRA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>R</t>
   </si>
@@ -136,6 +133,27 @@
   </si>
   <si>
     <t>überlauf zwres berücksichtigen</t>
+  </si>
+  <si>
+    <t>SRL</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>#32767</t>
+  </si>
+  <si>
+    <t>,#514</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>check if negative</t>
+  </si>
+  <si>
+    <t>überlauf auch shiften</t>
   </si>
 </sst>
 </file>
@@ -493,9 +511,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -510,16 +530,16 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -529,7 +549,7 @@
         <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4">
         <v>3</v>
@@ -541,7 +561,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2">
         <v>510</v>
@@ -552,7 +572,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="4">
         <v>3</v>
@@ -564,7 +584,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="2">
         <v>508</v>
@@ -575,7 +595,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -584,7 +604,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I4" s="2">
         <v>500</v>
@@ -595,7 +615,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="4">
         <v>3</v>
@@ -607,7 +627,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I5" s="2">
         <v>502</v>
@@ -618,7 +638,7 @@
         <v>108</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -630,7 +650,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2">
         <v>506</v>
@@ -641,16 +661,19 @@
         <v>110</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="2">
         <v>504</v>
@@ -661,12 +684,12 @@
         <v>112</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="str">
-        <f>"#"&amp;A$36</f>
-        <v>#168</v>
+        <f>"#"&amp;A$52</f>
+        <v>#200</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -676,7 +699,7 @@
         <v>114</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -690,7 +713,7 @@
         <v>116</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -701,7 +724,7 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -709,10 +732,10 @@
         <v>118</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -720,7 +743,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -731,7 +754,7 @@
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -739,14 +762,14 @@
         <v>122</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5" t="str">
-        <f>"#"&amp;A$21</f>
-        <v>#138</v>
+        <f>"#"&amp;A$24</f>
+        <v>#144</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -754,13 +777,13 @@
         <v>124</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -768,7 +791,7 @@
         <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -779,7 +802,7 @@
         <v>128</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
@@ -794,13 +817,13 @@
         <v>130</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -808,7 +831,7 @@
         <v>132</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -823,11 +846,11 @@
         <v>134</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f>"#"&amp;A$46</f>
-        <v>#188</v>
+        <f>"#"&amp;A$65</f>
+        <v>#226</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -835,14 +858,17 @@
         <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f>"#"&amp;A$10</f>
-        <v>#116</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>11</v>
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -850,10 +876,7 @@
         <v>138</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -867,8 +890,8 @@
         <v>0</v>
       </c>
       <c r="D22" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,14 +899,14 @@
         <v>142</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f>"#"&amp;A$51</f>
-        <v>#198</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>39</v>
+        <f>"#"&amp;A$10</f>
+        <v>#116</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -891,17 +914,10 @@
         <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C24" s="5">
         <v>0</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,17 +925,14 @@
         <v>146</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>19</v>
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -927,13 +940,14 @@
         <v>148</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f>"#"&amp;A$70</f>
+        <v>#236</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -941,7 +955,7 @@
         <v>150</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" s="5">
         <v>0</v>
@@ -951,7 +965,7 @@
         <v>,#506</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -959,14 +973,17 @@
         <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="5">
+        <v>1</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f>"#"&amp;A$30</f>
-        <v>#156</v>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -974,14 +991,13 @@
         <v>154</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="5" t="str">
-        <f>"#"&amp;A$13</f>
-        <v>#122</v>
+        <v>11</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -995,11 +1011,11 @@
         <v>0</v>
       </c>
       <c r="D30" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1007,13 +1023,14 @@
         <v>158</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f>"#"&amp;A$39</f>
+        <v>#174</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1021,7 +1038,7 @@
         <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C32" s="5">
         <v>0</v>
@@ -1030,22 +1047,20 @@
         <f>",#"&amp;$I$7</f>
         <v>,#504</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>162</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C33" s="5">
-        <v>0</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f>",#"&amp;$I3</f>
+        <v>,#508</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,27 +1068,25 @@
         <v>164</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C34" s="5">
-        <v>0</v>
-      </c>
-      <c r="D34" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E34" s="4"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>166</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
       </c>
       <c r="D35" s="5" t="str">
-        <f>"#"&amp;A$13</f>
-        <v>#122</v>
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1081,23 +1094,25 @@
         <v>168</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
       </c>
-      <c r="D36" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>170</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,10 +1120,14 @@
         <v>172</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D38" s="5" t="str">
+        <f>"#"&amp;A$13</f>
+        <v>#122</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1116,30 +1135,31 @@
         <v>174</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C39" s="5">
         <v>0</v>
       </c>
-      <c r="D39" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E39" s="4"/>
+      <c r="D39" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>176</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5">
-        <v>0</v>
-      </c>
-      <c r="D40" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1147,7 +1167,17 @@
         <v>178</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1155,10 +1185,10 @@
         <v>180</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>30</v>
+        <v>8</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,14 +1196,10 @@
         <v>182</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="5">
-        <v>0</v>
-      </c>
-      <c r="D43" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1181,10 +1207,13 @@
         <v>184</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C44" s="5">
         <v>0</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1192,11 +1221,13 @@
         <v>186</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D45" s="5" t="str">
-        <f>"#"&amp;A$9</f>
-        <v>#114</v>
+        <v>4</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1204,14 +1235,14 @@
         <v>188</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="5">
         <v>0</v>
       </c>
       <c r="D46" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1219,10 +1250,10 @@
         <v>190</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>30</v>
+        <v>43</v>
+      </c>
+      <c r="C47" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1230,14 +1261,14 @@
         <v>192</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="5">
         <v>0</v>
       </c>
       <c r="D48" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1245,13 +1276,13 @@
         <v>194</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1259,29 +1290,27 @@
         <v>196</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="5" t="str">
-        <f>"#"&amp;A$10</f>
-        <v>#116</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>11</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>198</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D51" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+        <f>"#"&amp;A$38</f>
+        <v>#172</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1289,23 +1318,23 @@
         <v>200</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="5" t="str">
-        <f>"#"&amp;A$54</f>
-        <v>#204</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>202</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="5" t="str">
-        <f>"#"&amp;A$24</f>
-        <v>#144</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1313,14 +1342,10 @@
         <v>204</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="5">
-        <v>0</v>
-      </c>
-      <c r="D54" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1328,224 +1353,384 @@
         <v>206</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" s="5">
         <v>0</v>
       </c>
-      <c r="D55" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
+      <c r="D55" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>208</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0</v>
       </c>
       <c r="D56" s="5" t="str">
-        <f>"#"&amp;A$24</f>
-        <v>#144</v>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>210</v>
       </c>
+      <c r="B57" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>212</v>
       </c>
+      <c r="B58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>214</v>
       </c>
+      <c r="B59" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>216</v>
       </c>
+      <c r="B60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>218</v>
       </c>
+      <c r="B61" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>220</v>
       </c>
+      <c r="B62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0</v>
+      </c>
+      <c r="D62" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>222</v>
       </c>
+      <c r="B63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>224</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="5" t="str">
+        <f>"#"&amp;A$9</f>
+        <v>#114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>226</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>228</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>230</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>232</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="5">
+        <v>0</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>234</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <f>"#"&amp;A$20</f>
+        <v>#136</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>236</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+      <c r="D70" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>238</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <f>"#"&amp;A$73</f>
+        <v>#242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>240</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="5" t="str">
+        <f>"#"&amp;A$27</f>
+        <v>#150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>242</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="5">
+        <v>0</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>244</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0</v>
+      </c>
+      <c r="D74" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>246</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <f>"#"&amp;A$27</f>
+        <v>#150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>254</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>258</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>260</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>264</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>266</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>268</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>270</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>272</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>274</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>278</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>288</v>
       </c>
@@ -1611,414 +1796,310 @@
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
-        <v>314</v>
-      </c>
+      <c r="A109" s="4"/>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
-        <v>316</v>
-      </c>
+      <c r="A110" s="4"/>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
-        <v>318</v>
-      </c>
+      <c r="A111" s="4"/>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
-        <v>320</v>
-      </c>
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
-        <v>322</v>
-      </c>
+      <c r="A113" s="4"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4">
-        <v>324</v>
-      </c>
+      <c r="A114" s="4"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
-        <v>326</v>
-      </c>
+      <c r="A115" s="4"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
-        <v>328</v>
-      </c>
+      <c r="A116" s="4"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4">
-        <v>330</v>
-      </c>
+      <c r="A117" s="4"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
-        <v>332</v>
-      </c>
+      <c r="A118" s="4"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
-        <v>334</v>
-      </c>
+      <c r="A119" s="4"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
-        <v>336</v>
-      </c>
+      <c r="A120" s="4"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="4">
-        <v>338</v>
-      </c>
+      <c r="A121" s="4"/>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="4">
-        <v>340</v>
-      </c>
+      <c r="A122" s="4"/>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="4">
-        <v>342</v>
-      </c>
+      <c r="A123" s="4"/>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
-        <v>344</v>
-      </c>
+      <c r="A124" s="4"/>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
-        <v>346</v>
-      </c>
+      <c r="A125" s="4"/>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
-        <v>348</v>
-      </c>
+      <c r="A126" s="4"/>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
-        <v>350</v>
-      </c>
+      <c r="A127" s="4"/>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="4">
-        <v>352</v>
-      </c>
+      <c r="A128" s="4"/>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
-        <v>354</v>
-      </c>
+      <c r="A129" s="4"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
-        <v>356</v>
-      </c>
+      <c r="A130" s="4"/>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
-        <v>358</v>
-      </c>
+      <c r="A131" s="4"/>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="4">
-        <v>360</v>
-      </c>
+      <c r="A132" s="4"/>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="4">
-        <v>362</v>
-      </c>
+      <c r="A133" s="4"/>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="4">
-        <v>364</v>
-      </c>
+      <c r="A134" s="4"/>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="4">
-        <v>366</v>
-      </c>
+      <c r="A135" s="4"/>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="4">
-        <v>368</v>
-      </c>
+      <c r="A136" s="4"/>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="4">
-        <v>370</v>
-      </c>
+      <c r="A137" s="4"/>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="4">
-        <v>372</v>
-      </c>
+      <c r="A138" s="4"/>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="4">
-        <v>374</v>
-      </c>
+      <c r="A139" s="4"/>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="4">
-        <v>376</v>
-      </c>
+      <c r="A140" s="4"/>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
-        <v>378</v>
-      </c>
+      <c r="A141" s="4"/>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
-        <v>380</v>
-      </c>
+      <c r="A142" s="4"/>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="4">
-        <v>382</v>
-      </c>
+      <c r="A143" s="4"/>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="4">
-        <v>384</v>
-      </c>
+      <c r="A144" s="4"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="4">
-        <v>386</v>
-      </c>
+      <c r="A145" s="4"/>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
-        <v>388</v>
-      </c>
+      <c r="A146" s="4"/>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
-        <v>390</v>
-      </c>
+      <c r="A147" s="4"/>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
-        <v>392</v>
-      </c>
+      <c r="A148" s="4"/>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
-        <v>394</v>
-      </c>
+      <c r="A149" s="4"/>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
-        <v>396</v>
-      </c>
+      <c r="A150" s="4"/>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
-        <v>398</v>
-      </c>
+      <c r="A151" s="4"/>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
-        <v>400</v>
-      </c>
+      <c r="A152" s="4"/>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
-        <v>402</v>
-      </c>
+      <c r="A153" s="4"/>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
-        <v>404</v>
-      </c>
+      <c r="A154" s="4"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
-        <v>406</v>
-      </c>
+      <c r="A155" s="4"/>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
-        <v>408</v>
-      </c>
+      <c r="A156" s="4"/>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
-        <v>410</v>
-      </c>
+      <c r="A157" s="4"/>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
-        <v>412</v>
-      </c>
+      <c r="A158" s="4"/>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="4">
-        <v>414</v>
-      </c>
+      <c r="A159" s="4"/>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="4">
-        <v>416</v>
-      </c>
+      <c r="A160" s="4"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="4">
-        <v>418</v>
-      </c>
+      <c r="A161" s="4"/>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="4">
-        <v>420</v>
-      </c>
+      <c r="A162" s="4"/>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="4">
-        <v>422</v>
-      </c>
+      <c r="A163" s="4"/>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="4">
-        <v>424</v>
-      </c>
+      <c r="A164" s="4"/>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="4">
-        <v>426</v>
-      </c>
+      <c r="A165" s="4"/>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="4">
-        <v>428</v>
-      </c>
+      <c r="A166" s="4"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="4">
-        <v>430</v>
-      </c>
+      <c r="A167" s="4"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="4">
-        <v>432</v>
-      </c>
+      <c r="A168" s="4"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="4">
-        <v>434</v>
-      </c>
+      <c r="A169" s="4"/>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="4">
-        <v>436</v>
-      </c>
+      <c r="A170" s="4"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="4">
-        <v>438</v>
-      </c>
+      <c r="A171" s="4"/>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="4">
-        <v>440</v>
-      </c>
+      <c r="A172" s="4"/>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="4">
-        <v>442</v>
-      </c>
+      <c r="A173" s="4"/>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="4">
-        <v>444</v>
-      </c>
+      <c r="A174" s="4"/>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="4">
-        <v>446</v>
-      </c>
+      <c r="A175" s="4"/>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="4">
-        <v>448</v>
-      </c>
+      <c r="A176" s="4"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="4">
-        <v>450</v>
-      </c>
+      <c r="A177" s="4"/>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="4">
-        <v>452</v>
-      </c>
+      <c r="A178" s="4"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="4">
-        <v>454</v>
-      </c>
+      <c r="A179" s="4"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="4">
-        <v>456</v>
-      </c>
+      <c r="A180" s="4"/>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="4">
-        <v>458</v>
-      </c>
+      <c r="A181" s="4"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="4">
-        <v>460</v>
-      </c>
+      <c r="A182" s="4"/>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="4">
-        <v>462</v>
-      </c>
+      <c r="A183" s="4"/>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="4">
-        <v>464</v>
-      </c>
+      <c r="A184" s="4"/>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="4">
-        <v>466</v>
-      </c>
+      <c r="A185" s="4"/>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="4">
-        <v>468</v>
-      </c>
+      <c r="A186" s="4"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="4">
-        <v>470</v>
-      </c>
+      <c r="A187" s="4"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="4">
-        <v>472</v>
-      </c>
+      <c r="A188" s="4"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="4">
-        <v>474</v>
-      </c>
+      <c r="A189" s="4"/>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="4">
-        <v>476</v>
-      </c>
+      <c r="A190" s="4"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" s="4"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" s="4"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" s="4"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" s="4"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" s="4"/>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" s="4"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="4"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" s="4"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" s="4"/>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" s="4"/>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" s="4"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="4"/>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="4"/>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="4"/>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" s="4"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" s="4"/>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" s="4"/>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" s="4"/>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" s="4"/>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Examples/Multiplikation.xlsx
+++ b/Examples/Multiplikation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="48">
   <si>
     <t>R</t>
   </si>
@@ -154,6 +154,12 @@
   </si>
   <si>
     <t>überlauf auch shiften</t>
+  </si>
+  <si>
+    <t>result sign</t>
+  </si>
+  <si>
+    <t>check if o2 is neg</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I210"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40:D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,54 +694,64 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="str">
-        <f>"#"&amp;A$52</f>
-        <v>#200</v>
+        <f>"#"&amp;A$53</f>
+        <v>#202</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+      <c r="H8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="2">
+        <v>520</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>114</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="str">
+        <f>"#"&amp;A$61</f>
+        <v>#218</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>116</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
+      <c r="B10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>118</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>39</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -743,18 +759,10 @@
         <v>120</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E12" s="4"/>
+        <v>39</v>
+      </c>
       <c r="F12" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -762,14 +770,18 @@
         <v>122</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5" t="str">
-        <f>"#"&amp;A$24</f>
-        <v>#144</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -777,13 +789,14 @@
         <v>124</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>6</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f>"#"&amp;A$25</f>
+        <v>#146</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -791,10 +804,14 @@
         <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f>"#"&amp;A$87</f>
+        <v>#270</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -802,14 +819,10 @@
         <v>128</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C16" s="5">
         <v>0</v>
-      </c>
-      <c r="D16" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -817,13 +830,14 @@
         <v>130</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -831,14 +845,13 @@
         <v>132</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
+        <v>40</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -846,11 +859,14 @@
         <v>134</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
       </c>
       <c r="D19" s="5" t="str">
-        <f>"#"&amp;A$65</f>
-        <v>#226</v>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -858,17 +874,11 @@
         <v>136</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D20" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
-      </c>
-      <c r="G20" t="s">
-        <v>45</v>
+        <f>"#"&amp;A$75</f>
+        <v>#246</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -876,7 +886,17 @@
         <v>138</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -884,14 +904,7 @@
         <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0</v>
-      </c>
-      <c r="D22" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -899,14 +912,14 @@
         <v>142</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
       </c>
       <c r="D23" s="5" t="str">
-        <f>"#"&amp;A$10</f>
-        <v>#116</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>10</v>
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -914,10 +927,14 @@
         <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>"#"&amp;A$10</f>
+        <v>#116</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -925,14 +942,10 @@
         <v>146</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C25" s="5">
         <v>0</v>
-      </c>
-      <c r="D25" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -940,14 +953,14 @@
         <v>148</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
       </c>
       <c r="D26" s="5" t="str">
-        <f>"#"&amp;A$70</f>
-        <v>#236</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>38</v>
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -955,17 +968,14 @@
         <v>150</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D27" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>17</v>
+        <f>"#"&amp;A$81</f>
+        <v>#258</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -976,14 +986,14 @@
         <v>4</v>
       </c>
       <c r="C28" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -991,13 +1001,17 @@
         <v>154</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C29" s="5">
         <v>1</v>
       </c>
+      <c r="D29" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
       <c r="F29" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1005,17 +1019,13 @@
         <v>156</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C30" s="5">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
+        <v>1</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1023,14 +1033,17 @@
         <v>158</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0</v>
       </c>
       <c r="D31" s="5" t="str">
-        <f>"#"&amp;A$39</f>
-        <v>#174</v>
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1038,14 +1051,14 @@
         <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D32" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+        <f>"#"&amp;A$40</f>
+        <v>#176</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1056,11 +1069,11 @@
         <v>4</v>
       </c>
       <c r="C33" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="5" t="str">
-        <f>",#"&amp;$I3</f>
-        <v>,#508</v>
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1068,10 +1081,14 @@
         <v>164</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C34" s="5">
         <v>1</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f>",#"&amp;$I3</f>
+        <v>,#508</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1079,14 +1096,10 @@
         <v>166</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C35" s="5">
-        <v>0</v>
-      </c>
-      <c r="D35" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1094,10 +1107,14 @@
         <v>168</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
+      </c>
+      <c r="D36" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1105,14 +1122,10 @@
         <v>170</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C37" s="5">
         <v>0</v>
-      </c>
-      <c r="D37" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1120,14 +1133,14 @@
         <v>172</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="5" t="str">
-        <f>"#"&amp;A$13</f>
-        <v>#122</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+      <c r="D38" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1135,17 +1148,14 @@
         <v>174</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D39" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+        <f>"#"&amp;A$14</f>
+        <v>#124</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1153,13 +1163,17 @@
         <v>176</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1167,17 +1181,13 @@
         <v>178</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="5">
-        <v>0</v>
-      </c>
-      <c r="D41" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1185,10 +1195,17 @@
         <v>180</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C42" s="5">
         <v>0</v>
+      </c>
+      <c r="D42" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,10 +1213,10 @@
         <v>182</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1207,13 +1224,10 @@
         <v>184</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1221,10 +1235,10 @@
         <v>186</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>42</v>
@@ -1238,11 +1252,10 @@
         <v>4</v>
       </c>
       <c r="C46" s="5">
-        <v>0</v>
-      </c>
-      <c r="D46" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1250,10 +1263,14 @@
         <v>190</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C47" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1261,14 +1278,10 @@
         <v>192</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="C48" s="5">
-        <v>0</v>
-      </c>
-      <c r="D48" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1276,13 +1289,14 @@
         <v>194</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>26</v>
+      <c r="D49" s="5" t="str">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1290,62 +1304,65 @@
         <v>196</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C50" s="5">
         <v>0</v>
       </c>
-      <c r="D50" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E50" s="4"/>
+      <c r="F50" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>198</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="5" t="str">
-        <f>"#"&amp;A$38</f>
-        <v>#172</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>200</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="5">
-        <v>0</v>
-      </c>
-      <c r="D52" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E52" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="D52" s="5" t="str">
+        <f>"#"&amp;A$39</f>
+        <v>#174</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>202</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>204</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1353,102 +1370,108 @@
         <v>206</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5">
-        <v>0</v>
-      </c>
-      <c r="D55" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E55" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>208</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="5">
         <v>0</v>
       </c>
-      <c r="D56" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
+      <c r="D56" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>210</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>212</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>29</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>214</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="5">
-        <v>0</v>
-      </c>
-      <c r="D59" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>216</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="5">
         <v>0</v>
       </c>
       <c r="D60" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
-      </c>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>218</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>220</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="5">
-        <v>0</v>
-      </c>
-      <c r="D62" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
+        <v>28</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1456,11 +1479,13 @@
         <v>222</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="5">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D63" s="4" t="str">
+        <f>"#"&amp;A$65</f>
+        <v>#226</v>
+      </c>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
@@ -1469,10 +1494,11 @@
       <c r="B64" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="5" t="str">
-        <f>"#"&amp;A$9</f>
-        <v>#114</v>
-      </c>
+      <c r="D64" s="4" t="str">
+        <f>"#"&amp;A$10</f>
+        <v>#116</v>
+      </c>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -1485,8 +1511,8 @@
         <v>0</v>
       </c>
       <c r="D65" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1494,10 +1520,7 @@
         <v>228</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1505,14 +1528,10 @@
         <v>230</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="5">
-        <v>0</v>
-      </c>
-      <c r="D67" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
+        <v>12</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1520,13 +1539,14 @@
         <v>232</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C68" s="5">
         <v>0</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>26</v>
+      <c r="D68" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1534,14 +1554,10 @@
         <v>234</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="5" t="str">
-        <f>"#"&amp;A$20</f>
-        <v>#136</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C69" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1549,28 +1565,15 @@
         <v>236</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5">
-        <v>0</v>
-      </c>
-      <c r="D70" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-      <c r="E70"/>
-      <c r="F70"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>238</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" s="5" t="str">
-        <f>"#"&amp;A$73</f>
-        <v>#242</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1578,11 +1581,14 @@
         <v>240</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C72" s="5">
+        <v>0</v>
       </c>
       <c r="D72" s="5" t="str">
-        <f>"#"&amp;A$27</f>
-        <v>#150</v>
+        <f>",#"&amp;$I$8</f>
+        <v>,#520</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1590,14 +1596,10 @@
         <v>242</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C73" s="5">
         <v>0</v>
-      </c>
-      <c r="D73" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1605,14 +1607,11 @@
         <v>244</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D74" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+        <f>"#"&amp;A$10</f>
+        <v>#116</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1620,213 +1619,440 @@
         <v>246</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0</v>
       </c>
       <c r="D75" s="5" t="str">
-        <f>"#"&amp;A$27</f>
-        <v>#150</v>
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>248</v>
       </c>
+      <c r="B76" s="5" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>250</v>
       </c>
+      <c r="B77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>252</v>
       </c>
+      <c r="B78" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="5">
+        <v>0</v>
+      </c>
+      <c r="D78" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>254</v>
       </c>
+      <c r="B79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="5">
+        <v>0</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>256</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="5" t="str">
+        <f>"#"&amp;A$24</f>
+        <v>#144</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>258</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="5">
+        <v>0</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="E81"/>
+      <c r="F81"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="5" t="str">
+        <f>"#"&amp;A$84</f>
+        <v>#264</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>262</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="5" t="str">
+        <f>"#"&amp;A$28</f>
+        <v>#152</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>264</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="5">
+        <v>0</v>
+      </c>
+      <c r="D84" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>266</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="5">
+        <v>0</v>
+      </c>
+      <c r="D85" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>268</v>
       </c>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="5" t="str">
+        <f>"#"&amp;A$28</f>
+        <v>#152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>270</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="5">
+        <v>0</v>
+      </c>
+      <c r="D87" s="5" t="str">
+        <f>",#"&amp;$I$8</f>
+        <v>,#520</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>272</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>274</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="5">
+        <v>0</v>
+      </c>
+      <c r="D89" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>276</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>278</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" s="5">
+        <v>0</v>
+      </c>
+      <c r="D91" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>280</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="5">
+        <v>0</v>
+      </c>
+      <c r="D92" s="5" t="str">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>282</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>284</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>286</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B95" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" s="5">
+        <v>0</v>
+      </c>
+      <c r="D95" s="5" t="str">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>288</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B96" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="5" t="str">
+        <f>"#"&amp;A$98</f>
+        <v>#292</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>290</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>292</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="5">
+        <v>0</v>
+      </c>
+      <c r="D98" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>294</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>296</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B100" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="5">
+        <v>0</v>
+      </c>
+      <c r="D100" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>298</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B101" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>302</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>304</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>306</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>308</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>310</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>312</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="4">
+        <v>320</v>
+      </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
+      <c r="A113" s="4">
+        <v>322</v>
+      </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
+      <c r="A114" s="4">
+        <v>324</v>
+      </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
+      <c r="A115" s="4">
+        <v>326</v>
+      </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4"/>
+      <c r="A116" s="4">
+        <v>328</v>
+      </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
+      <c r="A117" s="4">
+        <v>330</v>
+      </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4"/>
+      <c r="A118" s="4">
+        <v>332</v>
+      </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
+      <c r="A119" s="4">
+        <v>334</v>
+      </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
@@ -2100,6 +2326,39 @@
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" s="4"/>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" s="4"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" s="4"/>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" s="4"/>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" s="4"/>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" s="4"/>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" s="4"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" s="4"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" s="4"/>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" s="4"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Examples/Multiplikation.xlsx
+++ b/Examples/Multiplikation.xlsx
@@ -519,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:D52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,7 +845,7 @@
         <v>132</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>14</v>
@@ -1337,8 +1337,8 @@
         <v>9</v>
       </c>
       <c r="D52" s="5" t="str">
-        <f>"#"&amp;A$39</f>
-        <v>#174</v>
+        <f>"#"&amp;A$14</f>
+        <v>#124</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">

--- a/Examples/Multiplikation.xlsx
+++ b/Examples/Multiplikation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>R</t>
   </si>
@@ -42,9 +42,6 @@
     <t>BZD</t>
   </si>
   <si>
-    <t>CLR</t>
-  </si>
-  <si>
     <t>BD</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>store o2</t>
   </si>
   <si>
-    <t>carry reset</t>
-  </si>
-  <si>
     <t>NOT</t>
   </si>
   <si>
@@ -132,22 +126,10 @@
     <t>überlauf berücksichtigen</t>
   </si>
   <si>
-    <t>überlauf zwres berücksichtigen</t>
-  </si>
-  <si>
     <t>SRL</t>
   </si>
   <si>
     <t>SLA</t>
-  </si>
-  <si>
-    <t>#32767</t>
-  </si>
-  <si>
-    <t>,#514</t>
-  </si>
-  <si>
-    <t>AND</t>
   </si>
   <si>
     <t>check if negative</t>
@@ -517,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:N204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,7 +540,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>",#"&amp;I5</f>
@@ -567,7 +549,7 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2">
         <v>510</v>
@@ -581,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="str">
         <f>",#"&amp;I2</f>
@@ -590,7 +572,7 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="H3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I3" s="2">
         <v>508</v>
@@ -601,16 +583,19 @@
         <v>104</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="4">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="H4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2">
         <v>500</v>
@@ -621,19 +606,19 @@
         <v>106</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="str">
-        <f>",#"&amp;I5</f>
-        <v>,#502</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="2">
         <v>502</v>
@@ -644,19 +629,17 @@
         <v>108</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
+        <f>"#"&amp;A$36</f>
+        <v>#168</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I6" s="2">
         <v>506</v>
@@ -667,19 +650,17 @@
         <v>110</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="D7" s="4" t="str">
+        <f>"#"&amp;A$44</f>
+        <v>#184</v>
+      </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="H7" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I7" s="2">
         <v>504</v>
@@ -689,18 +670,23 @@
       <c r="A8" s="4">
         <v>112</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
       <c r="D8" s="4" t="str">
-        <f>"#"&amp;A$53</f>
-        <v>#202</v>
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8"/>
       <c r="H8" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2">
         <v>520</v>
@@ -710,48 +696,51 @@
       <c r="A9" s="4">
         <v>114</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="str">
-        <f>"#"&amp;A$61</f>
-        <v>#218</v>
-      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9"/>
     </row>
     <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>116</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>118</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f>"#"&amp;A$21</f>
+        <v>#138</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -759,10 +748,14 @@
         <v>120</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f>"#"&amp;A$67</f>
+        <v>#230</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -770,18 +763,14 @@
         <v>122</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
       </c>
-      <c r="D13" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5" t="s">
-        <v>16</v>
+      <c r="D13" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -789,14 +778,13 @@
         <v>124</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="str">
-        <f>"#"&amp;A$25</f>
-        <v>#146</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -804,14 +792,14 @@
         <v>126</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
       </c>
       <c r="D15" s="5" t="str">
-        <f>"#"&amp;A$87</f>
-        <v>#270</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>21</v>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -819,13 +807,14 @@
         <v>128</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f>"#"&amp;A$56</f>
+        <v>#208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>130</v>
       </c>
@@ -836,154 +825,183 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>132</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>134</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+      <c r="K19" s="4"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>136</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>"#"&amp;$A$8</f>
+        <v>#112</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>138</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>140</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>142</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>144</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>146</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>148</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1</v>
+      </c>
+      <c r="D26" s="5" t="str">
         <f>",#"&amp;$I$2</f>
         <v>,#510</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
-        <v>132</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>134</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
-        <v>136</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="5" t="str">
-        <f>"#"&amp;A$75</f>
-        <v>#246</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
-        <v>138</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>140</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>142</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="5">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>144</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="5" t="str">
-        <f>"#"&amp;A$10</f>
-        <v>#116</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>146</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
-        <v>148</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="5">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>150</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="5" t="str">
-        <f>"#"&amp;A$81</f>
-        <v>#258</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="5">
         <v>0</v>
@@ -993,72 +1011,69 @@
         <v>,#506</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>154</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D29" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
+        <f>"#"&amp;A$31</f>
+        <v>#158</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>156</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f>"#"&amp;A$11</f>
+        <v>#118</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>158</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="5">
         <v>0</v>
       </c>
       <c r="D31" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>160</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5" t="str">
-        <f>"#"&amp;A$40</f>
-        <v>#176</v>
+        <v>11</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1066,7 +1081,7 @@
         <v>162</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="5">
         <v>0</v>
@@ -1075,6 +1090,9 @@
         <f>",#"&amp;$I$7</f>
         <v>,#504</v>
       </c>
+      <c r="F33" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -1084,11 +1102,11 @@
         <v>4</v>
       </c>
       <c r="C34" s="5">
-        <v>1</v>
-      </c>
-      <c r="D34" s="5" t="str">
-        <f>",#"&amp;$I3</f>
-        <v>,#508</v>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,10 +1114,11 @@
         <v>166</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="5">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f>"#"&amp;A$12</f>
+        <v>#120</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,14 +1126,14 @@
         <v>168</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="5">
         <v>0</v>
       </c>
-      <c r="D36" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
+      <c r="D36" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1122,25 +1141,19 @@
         <v>170</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="5">
-        <v>0</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>172</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="5">
-        <v>0</v>
-      </c>
-      <c r="D38" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
+        <v>11</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1148,15 +1161,16 @@
         <v>174</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="5" t="str">
-        <f>"#"&amp;A$14</f>
-        <v>#124</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="4" t="str">
+        <f>",#"&amp;$I$4</f>
+        <v>,#500</v>
+      </c>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
@@ -1169,11 +1183,8 @@
         <v>0</v>
       </c>
       <c r="D40" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>18</v>
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -1181,13 +1192,7 @@
         <v>178</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1195,53 +1200,56 @@
         <v>180</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="5">
-        <v>0</v>
-      </c>
-      <c r="D42" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>182</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C43" s="5">
         <v>0</v>
       </c>
+      <c r="D43" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>184</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>41</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="4" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>186</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5">
-        <v>0</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1249,96 +1257,85 @@
         <v>188</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="5">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="str">
+        <f>"#"&amp;A$48</f>
+        <v>#192</v>
+      </c>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>190</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="5">
-        <v>0</v>
-      </c>
-      <c r="D47" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D47" s="4" t="str">
+        <f>"#"&amp;$A$8</f>
+        <v>#112</v>
+      </c>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>192</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="C48" s="5">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D48" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>194</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="5">
-        <v>0</v>
-      </c>
-      <c r="D49" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>196</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="5">
-        <v>0</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>26</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>198</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C51" s="5">
         <v>0</v>
       </c>
-      <c r="D51" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E51" s="4"/>
+      <c r="D51" s="5" t="str">
+        <f>",#"&amp;$I$2</f>
+        <v>,#510</v>
+      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>200</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="5" t="str">
-        <f>"#"&amp;A$14</f>
-        <v>#124</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1346,23 +1343,22 @@
         <v>202</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="5">
-        <v>0</v>
-      </c>
-      <c r="D53" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E53" s="4"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>204</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5" t="str">
+        <f>",#"&amp;$I$8</f>
+        <v>,#520</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1370,10 +1366,11 @@
         <v>206</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="D55" s="4" t="str">
+        <f>"#"&amp;$A$8</f>
+        <v>#112</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1381,69 +1378,64 @@
         <v>208</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" s="5">
         <v>0</v>
       </c>
-      <c r="D56" s="4" t="str">
-        <f>",#"&amp;$I$4</f>
-        <v>,#500</v>
-      </c>
-      <c r="E56" s="4"/>
+      <c r="D56" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>210</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="5">
-        <v>0</v>
-      </c>
-      <c r="D57" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
-      <c r="E57" s="4"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>212</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>214</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E59" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>216</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="5">
-        <v>0</v>
-      </c>
-      <c r="D60" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
-      <c r="E60" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D60" s="4" t="str">
+        <f>"#"&amp;$A$8</f>
+        <v>#112</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -1455,23 +1447,22 @@
       <c r="C61" s="5">
         <v>0</v>
       </c>
-      <c r="D61" s="4" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
-      <c r="E61" s="4"/>
+      <c r="D61" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+      <c r="F61"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>220</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
+      </c>
+      <c r="D62" s="5" t="str">
+        <f>"#"&amp;A$64</f>
+        <v>#224</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1479,580 +1470,385 @@
         <v>222</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="4" t="str">
-        <f>"#"&amp;A$65</f>
-        <v>#226</v>
-      </c>
-      <c r="E63" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <f>"#"&amp;A$25</f>
+        <v>#146</v>
+      </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>224</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="4" t="str">
-        <f>"#"&amp;A$10</f>
-        <v>#116</v>
-      </c>
-      <c r="E64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+      <c r="D64" s="5" t="str">
+        <f>",#"&amp;$I$3</f>
+        <v>,#508</v>
+      </c>
+      <c r="E64"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>226</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" s="5">
         <v>0</v>
       </c>
       <c r="D65" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>228</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D66" s="5" t="str">
+        <f>"#"&amp;A$25</f>
+        <v>#146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>230</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C67" s="5">
+        <v>0</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <f>",#"&amp;$I$8</f>
+        <v>,#520</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>232</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="5">
-        <v>0</v>
-      </c>
-      <c r="D68" s="5" t="str">
-        <f>",#"&amp;$I$2</f>
-        <v>,#510</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>234</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C69" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D69" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>236</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>238</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>240</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="5">
         <v>0</v>
       </c>
       <c r="D72" s="5" t="str">
-        <f>",#"&amp;$I$8</f>
-        <v>,#520</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>242</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C73" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>244</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="5" t="str">
-        <f>"#"&amp;A$10</f>
-        <v>#116</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>246</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" s="5">
         <v>0</v>
       </c>
       <c r="D75" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+        <f>",#"&amp;$I$6</f>
+        <v>,#506</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>248</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="D76" s="5" t="str">
+        <f>"#"&amp;A$78</f>
+        <v>#252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>250</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>252</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C78" s="5">
         <v>0</v>
       </c>
       <c r="D78" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>254</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="5">
-        <v>0</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>256</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>9</v>
+        <v>5</v>
+      </c>
+      <c r="C80" s="5">
+        <v>0</v>
       </c>
       <c r="D80" s="5" t="str">
-        <f>"#"&amp;A$24</f>
-        <v>#144</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <f>",#"&amp;$I$7</f>
+        <v>,#504</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>258</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="5">
-        <v>0</v>
-      </c>
-      <c r="D81" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-      <c r="E81"/>
-      <c r="F81"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>260</v>
       </c>
-      <c r="B82" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" s="5" t="str">
-        <f>"#"&amp;A$84</f>
-        <v>#264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>262</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="5" t="str">
-        <f>"#"&amp;A$28</f>
-        <v>#152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>264</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="5">
-        <v>0</v>
-      </c>
-      <c r="D84" s="5" t="str">
-        <f>",#"&amp;$I$3</f>
-        <v>,#508</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>266</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C85" s="5">
-        <v>0</v>
-      </c>
-      <c r="D85" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>268</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="5" t="str">
-        <f>"#"&amp;A$28</f>
-        <v>#152</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>270</v>
       </c>
-      <c r="B87" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="5">
-        <v>0</v>
-      </c>
-      <c r="D87" s="5" t="str">
-        <f>",#"&amp;$I$8</f>
-        <v>,#520</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>272</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>274</v>
       </c>
-      <c r="B89" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="5">
-        <v>0</v>
-      </c>
-      <c r="D89" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>276</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>278</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" s="5">
-        <v>0</v>
-      </c>
-      <c r="D91" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>280</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="5">
-        <v>0</v>
-      </c>
-      <c r="D92" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>282</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>284</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>286</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="5">
-        <v>0</v>
-      </c>
-      <c r="D95" s="5" t="str">
-        <f>",#"&amp;$I$6</f>
-        <v>,#506</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>288</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="5" t="str">
-        <f>"#"&amp;A$98</f>
-        <v>#292</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>290</v>
       </c>
-      <c r="B97" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C97"/>
-      <c r="D97" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>292</v>
       </c>
-      <c r="B98" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="5">
-        <v>0</v>
-      </c>
-      <c r="D98" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>294</v>
       </c>
-      <c r="B99" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
-        <v>296</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C100" s="5">
-        <v>0</v>
-      </c>
-      <c r="D100" s="5" t="str">
-        <f>",#"&amp;$I$7</f>
-        <v>,#504</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
-        <v>298</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
-        <v>320</v>
-      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
-        <v>322</v>
-      </c>
+      <c r="A113" s="4"/>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="4">
-        <v>324</v>
-      </c>
+      <c r="A114" s="4"/>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
-        <v>326</v>
-      </c>
+      <c r="A115" s="4"/>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
-        <v>328</v>
-      </c>
+      <c r="A116" s="4"/>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="4">
-        <v>330</v>
-      </c>
+      <c r="A117" s="4"/>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
-        <v>332</v>
-      </c>
+      <c r="A118" s="4"/>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
-        <v>334</v>
-      </c>
+      <c r="A119" s="4"/>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
@@ -2308,57 +2104,6 @@
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="4"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="4"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="4"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="4"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="4"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="4"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="4"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="4"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="4"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="4"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="4"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="4"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="4"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="4"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="4"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
